--- a/retos-del-curso-de-analisis-de-negocios-para-ciencia-de-datos.xlsx
+++ b/retos-del-curso-de-analisis-de-negocios-para-ciencia-de-datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Escuela\PLATZI\Analisis-de-negocios-para-ciencia-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD987503-718F-49DF-BECF-674672E19647}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5FCD8E-ADF5-4E8D-B2B7-C89E8CDEED14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Clase</t>
   </si>
@@ -857,6 +857,12 @@
   <si>
     <t>Amazon, Facebook, Google</t>
   </si>
+  <si>
+    <t>Datos de personas definitivamente, Navegación Web y finalmente el Machine 2 Machine</t>
+  </si>
+  <si>
+    <t>Google, Facebook y Amazon</t>
+  </si>
 </sst>
 </file>
 
@@ -963,14 +969,14 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1197,7 +1203,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:G3"/>
+      <selection activeCell="F5" sqref="F5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1276,15 +1282,15 @@
     </row>
     <row r="3" spans="1:26" ht="13.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="12"/>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>64</v>
       </c>
       <c r="G3" s="12"/>
@@ -1308,18 +1314,18 @@
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
     </row>
-    <row r="4" spans="1:26" ht="13.2">
+    <row r="4" spans="1:26" ht="28.8" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="12"/>
-      <c r="F4" s="11" t="s">
-        <v>5</v>
+      <c r="F4" s="13" t="s">
+        <v>65</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="1"/>
@@ -1344,16 +1350,16 @@
     </row>
     <row r="5" spans="1:26" ht="13.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="12"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
+      <c r="F5" s="13" t="s">
+        <v>66</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="1"/>
@@ -1378,15 +1384,15 @@
     </row>
     <row r="6" spans="1:26" ht="13.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="12"/>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="12"/>
@@ -1412,15 +1418,15 @@
     </row>
     <row r="7" spans="1:26" ht="13.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="12"/>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="12"/>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="12"/>
@@ -1446,11 +1452,11 @@
     </row>
     <row r="8" spans="1:26" ht="13.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="12"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1474,15 +1480,15 @@
     </row>
     <row r="9" spans="1:26" ht="13.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="12"/>
@@ -1508,15 +1514,15 @@
     </row>
     <row r="10" spans="1:26" ht="13.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="12"/>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
       <c r="G10" s="12"/>
@@ -1542,15 +1548,15 @@
     </row>
     <row r="11" spans="1:26" ht="13.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="12"/>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="12"/>
@@ -1576,15 +1582,15 @@
     </row>
     <row r="12" spans="1:26" ht="13.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="G12" s="12"/>
@@ -1610,15 +1616,15 @@
     </row>
     <row r="13" spans="1:26" ht="13.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="12"/>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="13" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="12"/>
@@ -1644,11 +1650,11 @@
     </row>
     <row r="14" spans="1:26" ht="13.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="12"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="1"/>
       <c r="I14" s="4"/>
@@ -1672,15 +1678,15 @@
     </row>
     <row r="15" spans="1:26" ht="13.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="12"/>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="12"/>
@@ -1706,15 +1712,15 @@
     </row>
     <row r="16" spans="1:26" ht="13.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="12"/>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>33</v>
       </c>
       <c r="E16" s="12"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="14" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12"/>
@@ -1740,15 +1746,15 @@
     </row>
     <row r="17" spans="1:26" ht="13.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="12"/>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="12"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>37</v>
       </c>
       <c r="G17" s="12"/>
@@ -1774,15 +1780,15 @@
     </row>
     <row r="18" spans="1:26" ht="13.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>39</v>
       </c>
       <c r="E18" s="12"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="12"/>
@@ -1808,15 +1814,15 @@
     </row>
     <row r="19" spans="1:26" ht="13.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="E19" s="12"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="G19" s="12"/>
@@ -1842,15 +1848,15 @@
     </row>
     <row r="20" spans="1:26" ht="13.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="12"/>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="12"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="12"/>
@@ -1876,15 +1882,15 @@
     </row>
     <row r="21" spans="1:26" ht="13.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>48</v>
       </c>
       <c r="E21" s="12"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>49</v>
       </c>
       <c r="G21" s="12"/>
@@ -1910,15 +1916,15 @@
     </row>
     <row r="22" spans="1:26" ht="13.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="13" t="s">
         <v>51</v>
       </c>
       <c r="E22" s="12"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>52</v>
       </c>
       <c r="G22" s="12"/>
@@ -1944,11 +1950,11 @@
     </row>
     <row r="23" spans="1:26" ht="13.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="12"/>
-      <c r="D23" s="14"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="12"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="12"/>
       <c r="H23" s="1"/>
       <c r="I23" s="4"/>
@@ -1972,15 +1978,15 @@
     </row>
     <row r="24" spans="1:26" ht="13.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C24" s="12"/>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="13" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="12"/>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="13" t="s">
         <v>55</v>
       </c>
       <c r="G24" s="12"/>
@@ -29362,12 +29368,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="B8:C8"/>
@@ -29377,60 +29431,12 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/retos-del-curso-de-analisis-de-negocios-para-ciencia-de-datos.xlsx
+++ b/retos-del-curso-de-analisis-de-negocios-para-ciencia-de-datos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Escuela\PLATZI\Analisis-de-negocios-para-ciencia-de-datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5FCD8E-ADF5-4E8D-B2B7-C89E8CDEED14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A659C71F-8B32-4516-8EEE-5DC98E42F003}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
